--- a/assets/data/INFORME_NDVI_QGIS_2024.xlsx
+++ b/assets/data/INFORME_NDVI_QGIS_2024.xlsx
@@ -46,6 +46,16 @@
     <sheet name="14jul2024" sheetId="37" state="visible" r:id="rId37"/>
     <sheet name="24jul2024" sheetId="38" state="visible" r:id="rId38"/>
     <sheet name="29jul2024" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="13ago2024" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="18ago2024" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="28ago2024" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="07sep2024" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="17sep2024" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="27sep2024" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="07oct2024" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="06nov2024" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="01dic2024" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="06dic2024" sheetId="49" state="visible" r:id="rId49"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,7 +522,7 @@
         <v>0.8638681907716508</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -648,7 +658,7 @@
         <v>0.8699080563354247</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -682,7 +692,7 @@
         <v>0.6600940030856914</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -767,7 +777,7 @@
         <v>0.5013180751373656</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -852,7 +862,7 @@
         <v>0.467384539189733</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -869,7 +879,7 @@
         <v>0.5558924780030253</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -886,7 +896,7 @@
         <v>0.3377625633168463</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -903,7 +913,7 @@
         <v>0.7078717690860733</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -983,7 +993,7 @@
         <v>0.8361689884946536</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1017,7 +1027,7 @@
         <v>0.7958387231099477</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1034,7 +1044,7 @@
         <v>0.690039435017184</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1061,7 @@
         <v>0.7236993857068549</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1078,7 @@
         <v>0.7084524273965559</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1085,7 +1095,7 @@
         <v>0.7810780069416527</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1102,7 +1112,7 @@
         <v>0.7195220225678859</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1119,7 +1129,7 @@
         <v>0.8190538167604687</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1136,7 +1146,7 @@
         <v>0.8117779738086024</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1163,7 @@
         <v>0.6997300308760065</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1170,7 +1180,7 @@
         <v>0.799944226655532</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1187,7 +1197,7 @@
         <v>0.8525292510536511</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1204,7 +1214,7 @@
         <v>0.802567646152872</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1231,7 @@
         <v>0.8182782585777046</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1248,7 @@
         <v>0.3951014582337322</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1255,7 +1265,7 @@
         <v>0.6681741961200575</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1272,7 +1282,7 @@
         <v>0.6941955902876348</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1289,7 +1299,7 @@
         <v>0.727337685938335</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1306,7 +1316,7 @@
         <v>0.8057680524760377</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1323,7 +1333,7 @@
         <v>0.3774051207948099</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1340,7 +1350,7 @@
         <v>0.3305440353009935</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1391,7 +1401,7 @@
         <v>0.7050206921531171</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1515,7 @@
         <v>0.7265060988218723</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1573,7 +1583,7 @@
         <v>0.7427326714652532</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1624,7 +1634,7 @@
         <v>0.7284491909858508</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1709,7 +1719,7 @@
         <v>0.4835914354606781</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1794,7 +1804,7 @@
         <v>0.4515149420130387</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1811,7 +1821,7 @@
         <v>0.4311518327779644</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1925,7 +1935,7 @@
         <v>0.792239353458474</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1942,7 +1952,7 @@
         <v>0.6894978769944103</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1959,7 +1969,7 @@
         <v>0.6511114604319954</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1976,7 +1986,7 @@
         <v>0.6681758187658043</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2010,7 +2020,7 @@
         <v>0.6617983087336572</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2027,7 +2037,7 @@
         <v>0.7367058628971943</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -2044,7 +2054,7 @@
         <v>0.6771583178269032</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2061,7 +2071,7 @@
         <v>0.3285202982645766</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2095,7 +2105,7 @@
         <v>0.5918418864953782</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2112,7 +2122,7 @@
         <v>0.6013196529341536</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2129,7 +2139,7 @@
         <v>0.8142902242177081</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -2146,7 +2156,7 @@
         <v>0.7121940854569547</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2180,7 +2190,7 @@
         <v>0.3481298261293461</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2197,7 +2207,7 @@
         <v>0.6244491719792689</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2214,7 +2224,7 @@
         <v>0.7529267210809106</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -2231,7 +2241,7 @@
         <v>0.6927011529008277</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2248,7 +2258,7 @@
         <v>0.6939674531692392</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2265,7 +2275,7 @@
         <v>0.3651915853860346</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2282,7 +2292,7 @@
         <v>0.3303618148842027</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2316,7 +2326,7 @@
         <v>0.7099075274255042</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2333,7 +2343,7 @@
         <v>0.7482804263703376</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2423,7 @@
         <v>0.6044116615560345</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2447,7 +2457,7 @@
         <v>0.6309118469859908</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2481,7 +2491,7 @@
         <v>0.6032699054152462</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2498,7 +2508,7 @@
         <v>0.6099848031190632</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2532,7 +2542,7 @@
         <v>0.5765955101288558</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2566,7 +2576,7 @@
         <v>0.6008623989693198</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2651,7 +2661,7 @@
         <v>0.419857603816835</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2668,7 +2678,7 @@
         <v>0.5748530073835624</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2736,7 +2746,7 @@
         <v>0.4317202672686833</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -2753,7 +2763,7 @@
         <v>0.4463820511500995</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -2770,7 +2780,7 @@
         <v>0.2911721060286203</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2787,7 +2797,7 @@
         <v>0.5299328810750177</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2804,7 +2814,7 @@
         <v>0.6024298119170014</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2884,7 +2894,7 @@
         <v>0.7842877457208738</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2918,7 +2928,7 @@
         <v>0.8376526470501037</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2935,7 +2945,7 @@
         <v>0.7924110959123485</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2952,7 +2962,7 @@
         <v>0.730778915259625</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2969,7 +2979,7 @@
         <v>0.8271978874235235</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2986,7 +2996,7 @@
         <v>0.7553653041635726</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -3003,7 +3013,7 @@
         <v>0.6586488481376934</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3020,7 +3030,7 @@
         <v>0.8205687611099284</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3037,7 +3047,7 @@
         <v>0.7187977186264225</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3088,7 +3098,7 @@
         <v>0.8418652958011817</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -3122,7 +3132,7 @@
         <v>0.4305605437569766</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -3156,7 +3166,7 @@
         <v>0.8466983312580973</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -3207,7 +3217,7 @@
         <v>0.4456954130976619</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3224,7 +3234,7 @@
         <v>0.5276421203721576</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3258,7 +3268,7 @@
         <v>0.681701239622453</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -3275,7 +3285,7 @@
         <v>0.7746611235605688</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3365,7 @@
         <v>0.7881744802316066</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3406,7 +3416,7 @@
         <v>0.7915233619330033</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3423,7 +3433,7 @@
         <v>0.7248116454466287</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -3440,7 +3450,7 @@
         <v>0.8054535697396703</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -3457,7 +3467,7 @@
         <v>0.7336754521324712</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3474,7 +3484,7 @@
         <v>0.7229165103359708</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3491,7 +3501,7 @@
         <v>0.8186121152700639</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3508,7 +3518,7 @@
         <v>0.7190591234101127</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -3593,7 +3603,7 @@
         <v>0.4739154405074871</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -3610,7 +3620,7 @@
         <v>0.7195249377259891</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -3627,7 +3637,7 @@
         <v>0.8274548845964609</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -3644,7 +3654,7 @@
         <v>0.8326106910622759</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -3678,7 +3688,7 @@
         <v>0.5126476626318686</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -3695,7 +3705,7 @@
         <v>0.4932544371531489</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -3729,7 +3739,7 @@
         <v>0.7356712587474974</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -3746,7 +3756,7 @@
         <v>0.7954604094577236</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3860,7 +3870,7 @@
         <v>0.6679053218661457</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -3979,7 +3989,7 @@
         <v>0.7080773580055225</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -4064,7 +4074,7 @@
         <v>0.4327982973380746</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4149,7 +4159,7 @@
         <v>0.4265842063324249</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -4166,7 +4176,7 @@
         <v>0.5276022514564183</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4331,7 +4341,7 @@
         <v>0.671017826087687</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -4450,7 +4460,7 @@
         <v>0.7016566574656897</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -4535,7 +4545,7 @@
         <v>0.4402346096960936</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -4552,7 +4562,7 @@
         <v>0.7257914758157488</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -4569,7 +4579,7 @@
         <v>0.4774671947396803</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -4620,7 +4630,7 @@
         <v>0.4573145411270593</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -4637,7 +4647,7 @@
         <v>0.5149797793654842</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -4688,7 +4698,7 @@
         <v>0.7947956649046375</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4761,7 @@
         <v>0.2539138869190323</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4768,7 +4778,7 @@
         <v>0.209179482882899</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -4785,7 +4795,7 @@
         <v>0.4345907887280102</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4802,7 +4812,7 @@
         <v>0.4627902988272982</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4819,7 +4829,7 @@
         <v>0.3696332609793154</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -5409,7 +5419,7 @@
         <v>0.4876726676526071</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -5426,7 +5436,7 @@
         <v>0.4520146102538338</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -5443,7 +5453,7 @@
         <v>0.2645063984772984</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -5494,7 +5504,7 @@
         <v>0.4206413188828395</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -5511,7 +5521,7 @@
         <v>0.5658164114979709</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -5528,7 +5538,7 @@
         <v>0.4345103319833886</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -5545,7 +5555,7 @@
         <v>0.5032859647995828</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -5562,7 +5572,7 @@
         <v>0.2234831637197086</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -5579,7 +5589,7 @@
         <v>0.3105453985417161</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -5596,7 +5606,7 @@
         <v>0.2742685688545449</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -5613,7 +5623,7 @@
         <v>0.6318765727462571</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -5630,7 +5640,7 @@
         <v>0.5947938595241288</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5693,7 +5703,7 @@
         <v>0.7680088506428203</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5761,7 +5771,7 @@
         <v>0.626956832575886</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -5863,7 +5873,7 @@
         <v>0.5549462785179512</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -5914,7 +5924,7 @@
         <v>0.5578097996850644</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -6181,7 +6191,7 @@
         <v>0.5329702383873972</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6686,7 +6696,7 @@
         <v>0.7317659719688112</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6703,7 +6713,7 @@
         <v>0.8287450778903518</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -6720,7 +6730,7 @@
         <v>0.7826288697400579</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -6737,7 +6747,7 @@
         <v>0.8321042132822425</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -6754,7 +6764,7 @@
         <v>0.8468208771699546</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -6805,7 +6815,7 @@
         <v>0.7555809626771787</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -6822,7 +6832,7 @@
         <v>0.7802652013871074</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -6856,7 +6866,7 @@
         <v>0.8370163005220909</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -6890,7 +6900,7 @@
         <v>0.5469437077085245</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -6907,7 +6917,7 @@
         <v>0.7788472309096106</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -6924,7 +6934,7 @@
         <v>0.8211169807932722</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -6941,7 +6951,7 @@
         <v>0.8391140577574339</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -6975,7 +6985,7 @@
         <v>0.4951130418521046</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -6992,7 +7002,7 @@
         <v>0.5294887861957669</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -7497,7 +7507,7 @@
         <v>0.3641208252415957</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -7577,7 +7587,7 @@
         <v>0.8431424067934388</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -7594,7 +7604,7 @@
         <v>0.7852278165538502</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -7645,7 +7655,7 @@
         <v>0.7902999535266989</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -7662,7 +7672,7 @@
         <v>0.787536699212262</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -7679,7 +7689,7 @@
         <v>0.7901009096417015</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -7696,7 +7706,7 @@
         <v>0.8013049555431396</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -7713,7 +7723,7 @@
         <v>0.8165283013721947</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -7730,7 +7740,7 @@
         <v>0.8040314272390788</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -7832,7 +7842,7 @@
         <v>0.6056591614570469</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -7849,7 +7859,7 @@
         <v>0.6243489692081657</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -8048,7 +8058,7 @@
         <v>0.7467927193690158</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -8065,7 +8075,7 @@
         <v>0.7700862429398754</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8082,7 +8092,7 @@
         <v>0.818764898482825</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8099,7 +8109,7 @@
         <v>0.8541456764964596</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -8116,7 +8126,7 @@
         <v>0.7814427927191536</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -8133,7 +8143,7 @@
         <v>0.7774868963051824</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -8150,7 +8160,7 @@
         <v>0.4521465645246743</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -8167,7 +8177,7 @@
         <v>0.6611763083791365</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -8184,7 +8194,7 @@
         <v>0.7668336921244944</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -8201,7 +8211,7 @@
         <v>0.7946034738867466</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -8218,7 +8228,7 @@
         <v>0.3233272146360897</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -8235,7 +8245,7 @@
         <v>0.3161530210406213</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -8252,7 +8262,7 @@
         <v>0.3471791706437362</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -8269,7 +8279,7 @@
         <v>0.5886429965336245</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -8286,7 +8296,7 @@
         <v>0.8073923530981686</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -8303,7 +8313,7 @@
         <v>0.3152235541320891</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -8354,7 +8364,7 @@
         <v>0.3323965353213595</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -8371,7 +8381,7 @@
         <v>0.6447578751737124</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -8405,7 +8415,7 @@
         <v>0.3023509673315837</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -8422,7 +8432,7 @@
         <v>0.292804749071796</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -8439,7 +8449,7 @@
         <v>0.3938749856037151</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -8456,7 +8466,7 @@
         <v>0.5098489133902563</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8699,7 @@
         <v>0.3336296602347642</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -8808,7 +8818,7 @@
         <v>0.3199969408555873</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -8990,7 +9000,7 @@
         <v>0.8049611073440305</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -9007,7 +9017,7 @@
         <v>0.7527766338048522</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9024,7 +9034,7 @@
         <v>0.7810019790695827</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -9041,7 +9051,7 @@
         <v>0.7193745548185596</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9058,7 +9068,7 @@
         <v>0.6543085473160298</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -9075,7 +9085,7 @@
         <v>0.7739727095950815</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -9092,7 +9102,7 @@
         <v>0.7406521344978363</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -9109,7 +9119,7 @@
         <v>0.7813189459906668</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -9126,7 +9136,7 @@
         <v>0.7554104262072062</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -9143,7 +9153,7 @@
         <v>0.6482326216710245</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -9160,7 +9170,7 @@
         <v>0.7254088431602371</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -9177,7 +9187,7 @@
         <v>0.830102371942441</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -9194,7 +9204,7 @@
         <v>0.8444532796641059</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -9211,7 +9221,7 @@
         <v>0.8080636026464763</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -9228,7 +9238,7 @@
         <v>0.7264437626442463</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -9262,7 +9272,7 @@
         <v>0.6636596914347155</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -9279,7 +9289,7 @@
         <v>0.6803774911801146</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -9296,7 +9306,7 @@
         <v>0.7635133869179469</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -9313,7 +9323,7 @@
         <v>0.80001810971526</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -9330,7 +9340,7 @@
         <v>0.4237560266437898</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -9347,7 +9357,7 @@
         <v>0.4392009665007265</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -9381,7 +9391,7 @@
         <v>0.7175205567125527</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -9398,7 +9408,7 @@
         <v>0.7403365814988074</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -9461,7 +9471,7 @@
         <v>0.3120702141614048</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9478,7 +9488,7 @@
         <v>0.2937212161411172</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -9495,7 +9505,7 @@
         <v>0.3720723451378172</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -9512,7 +9522,7 @@
         <v>0.3716136832563531</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -9529,7 +9539,7 @@
         <v>0.2971500747896058</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -9546,7 +9556,7 @@
         <v>0.3690135101089925</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -9563,7 +9573,7 @@
         <v>0.383893353652528</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -9580,7 +9590,7 @@
         <v>0.4518178701879569</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -9597,7 +9607,7 @@
         <v>0.3019232258929496</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -9614,7 +9624,7 @@
         <v>0.2746351102665977</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -9631,7 +9641,7 @@
         <v>0.3758003292275148</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -9648,7 +9658,7 @@
         <v>0.4058214843294773</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -9665,7 +9675,7 @@
         <v>0.3857188408684263</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -9682,7 +9692,7 @@
         <v>0.340637223932723</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -9699,7 +9709,7 @@
         <v>0.3040713996660727</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -9716,7 +9726,7 @@
         <v>0.3182262642017135</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -9733,7 +9743,7 @@
         <v>0.3029374976469844</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -9750,7 +9760,7 @@
         <v>0.3139555415582571</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -9767,7 +9777,7 @@
         <v>0.3178588061162119</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -9784,7 +9794,7 @@
         <v>0.3601874646582209</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -9801,7 +9811,7 @@
         <v>0.2840087005758787</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -9818,7 +9828,7 @@
         <v>0.2742440149901205</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -9852,7 +9862,7 @@
         <v>0.2722713644964787</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -9869,7 +9879,7 @@
         <v>0.2934654081874886</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -9983,7 +9993,7 @@
         <v>0.658380151760509</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -10000,7 +10010,7 @@
         <v>0.6967670858168451</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -10102,7 +10112,7 @@
         <v>0.6796387593859409</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -10187,7 +10197,7 @@
         <v>0.4849877047211729</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -10204,7 +10214,7 @@
         <v>0.664157394897285</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -10221,7 +10231,7 @@
         <v>0.6893715118893649</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -10272,7 +10282,7 @@
         <v>0.3648248280592901</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -10289,7 +10299,7 @@
         <v>0.4398710782414516</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -10323,7 +10333,7 @@
         <v>0.6690105561011237</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -10420,7 +10430,7 @@
         <v>0.800993324670486</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -10471,7 +10481,7 @@
         <v>0.6459389477022724</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -10488,7 +10498,7 @@
         <v>0.7946122442001684</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -10522,7 +10532,7 @@
         <v>0.8123585258542023</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -10539,7 +10549,7 @@
         <v>0.7980142682574655</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -10556,7 +10566,7 @@
         <v>0.8125648387596641</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -10590,7 +10600,7 @@
         <v>0.3868180884188571</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -10607,7 +10617,7 @@
         <v>0.423583883651953</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -10624,7 +10634,7 @@
         <v>0.7863901691359643</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -10641,7 +10651,7 @@
         <v>0.8056425414117958</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -10658,7 +10668,7 @@
         <v>0.4313654226228476</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -10709,7 +10719,7 @@
         <v>0.7695966020738494</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -10726,7 +10736,7 @@
         <v>0.7935032086199717</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -10794,7 +10804,7 @@
         <v>0.6502816389731291</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -10874,7 +10884,7 @@
         <v>0.8354177186702311</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -10959,7 +10969,7 @@
         <v>0.6688650456038993</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -10976,7 +10986,7 @@
         <v>0.803323712101627</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -11010,7 +11020,7 @@
         <v>0.8173297342579228</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -11044,7 +11054,7 @@
         <v>0.6657485699358098</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -11095,7 +11105,7 @@
         <v>0.8046835140365085</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -11129,7 +11139,7 @@
         <v>0.4625837282354751</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -11146,7 +11156,7 @@
         <v>0.7907732269250011</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -11163,7 +11173,7 @@
         <v>0.7704232451339251</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -11180,7 +11190,7 @@
         <v>0.804655329489094</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -11197,7 +11207,7 @@
         <v>0.875232071071354</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -11214,7 +11224,7 @@
         <v>0.4250888714528885</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -11265,7 +11275,7 @@
         <v>0.7720649349443865</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -11282,7 +11292,7 @@
         <v>0.8234034213899299</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11362,7 +11372,7 @@
         <v>0.7479682197142742</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -11379,7 +11389,7 @@
         <v>0.8069994006651936</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -11396,7 +11406,7 @@
         <v>0.629434406331625</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11413,7 +11423,7 @@
         <v>0.7327462211991291</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -11430,7 +11440,7 @@
         <v>0.7892343886871693</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -11447,7 +11457,7 @@
         <v>0.8152350180113811</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -11464,7 +11474,7 @@
         <v>0.8176549023346545</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -11515,7 +11525,7 @@
         <v>0.7357912776339766</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -11532,7 +11542,7 @@
         <v>0.8255401401774998</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -11600,7 +11610,7 @@
         <v>0.5118596466174079</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -11617,7 +11627,7 @@
         <v>0.7521711957767478</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -11634,7 +11644,7 @@
         <v>0.7659193695694759</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -11651,7 +11661,7 @@
         <v>0.8083749315342749</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -11685,7 +11695,7 @@
         <v>0.360785549069677</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -11702,7 +11712,7 @@
         <v>0.4160717302194268</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -11736,7 +11746,7 @@
         <v>0.7226432012254915</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -11753,7 +11763,7 @@
         <v>0.7676514444204003</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -11833,7 +11843,7 @@
         <v>0.5351283898445637</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -11867,7 +11877,7 @@
         <v>0.5319722849591447</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11884,7 +11894,7 @@
         <v>0.5812840994595956</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -11918,7 +11928,7 @@
         <v>0.5460636117267559</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -11969,7 +11979,7 @@
         <v>0.5552425268351041</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -11986,7 +11996,7 @@
         <v>0.513855594135195</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -12020,7 +12030,7 @@
         <v>0.7578837164781687</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -12037,7 +12047,7 @@
         <v>0.5164533161760134</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -12054,7 +12064,7 @@
         <v>0.3962789232475509</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -12071,7 +12081,7 @@
         <v>0.3054391464468236</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -12088,7 +12098,7 @@
         <v>0.6118580538135093</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -12105,7 +12115,7 @@
         <v>0.5449987073829619</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -12122,7 +12132,7 @@
         <v>0.5186576992984205</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -12139,7 +12149,7 @@
         <v>0.4980609479180869</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -12156,7 +12166,7 @@
         <v>0.3680227072638519</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -12173,7 +12183,7 @@
         <v>0.4228615842959218</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -12287,7 +12297,7 @@
         <v>0.771203682432429</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12304,7 +12314,7 @@
         <v>0.6326018986508308</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -12321,7 +12331,7 @@
         <v>0.7770598295981765</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -12338,7 +12348,7 @@
         <v>0.6241713618042866</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -12355,7 +12365,7 @@
         <v>0.6997522901296557</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -12372,7 +12382,7 @@
         <v>0.7530680432760839</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -12389,7 +12399,7 @@
         <v>0.6882417313051248</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -12406,7 +12416,7 @@
         <v>0.7058541953233106</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -12423,7 +12433,7 @@
         <v>0.7520739352294072</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -12440,7 +12450,7 @@
         <v>0.7336855129938142</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -12457,7 +12467,7 @@
         <v>0.6288887164084288</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -12474,7 +12484,7 @@
         <v>0.667324082043328</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -12491,7 +12501,7 @@
         <v>0.8066903831575283</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -12508,7 +12518,7 @@
         <v>0.7403987513573849</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -12525,7 +12535,7 @@
         <v>0.850860067543161</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -12542,7 +12552,7 @@
         <v>0.2841011080613604</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -12559,7 +12569,7 @@
         <v>0.5796044070098482</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -12576,7 +12586,7 @@
         <v>0.5925373850481823</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -12593,7 +12603,7 @@
         <v>0.777074680753024</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -12627,7 +12637,7 @@
         <v>0.3235578347805886</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -12644,7 +12654,7 @@
         <v>0.4156960632490077</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -12678,7 +12688,7 @@
         <v>0.7410325635713934</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -12695,7 +12705,7 @@
         <v>0.7435547304880115</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -12758,7 +12768,7 @@
         <v>0.4081877190754877</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -12775,7 +12785,7 @@
         <v>0.3895795411132166</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12792,7 +12802,7 @@
         <v>0.3972369942641943</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -12809,7 +12819,7 @@
         <v>0.356083952625867</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -12826,7 +12836,7 @@
         <v>0.3918638145463674</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -12843,7 +12853,7 @@
         <v>0.4148722311227294</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -12860,7 +12870,7 @@
         <v>0.3299461443862015</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -12877,7 +12887,7 @@
         <v>0.3834184603845567</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -12894,7 +12904,7 @@
         <v>0.4110510553179054</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -12911,7 +12921,7 @@
         <v>0.40910893483813</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -12928,7 +12938,7 @@
         <v>0.3850769565956953</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -12945,7 +12955,7 @@
         <v>0.3615648645780614</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -12962,7 +12972,7 @@
         <v>0.4421271161015453</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -12979,7 +12989,7 @@
         <v>0.400554943980881</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -12996,7 +13006,7 @@
         <v>0.4216194350002474</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -13030,7 +13040,7 @@
         <v>0.3547881355793197</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -13047,7 +13057,7 @@
         <v>0.3186519894570286</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -13064,7 +13074,7 @@
         <v>0.3909110691682885</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -13081,7 +13091,7 @@
         <v>0.4057143293770544</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -13149,7 +13159,7 @@
         <v>0.3260074424317169</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -13166,7 +13176,7 @@
         <v>0.365058477443116</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -13229,7 +13239,7 @@
         <v>0.7085039697562344</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -13246,7 +13256,7 @@
         <v>0.6688600912879995</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -13263,7 +13273,7 @@
         <v>0.6988827083252593</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -13280,7 +13290,7 @@
         <v>0.5985825625708384</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -13297,7 +13307,7 @@
         <v>0.6704979512408272</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -13314,7 +13324,7 @@
         <v>0.682831653979356</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -13331,7 +13341,7 @@
         <v>0.5576416461947935</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -13365,7 +13375,7 @@
         <v>0.6448335246859304</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -13382,7 +13392,7 @@
         <v>0.7003404079808925</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -13399,7 +13409,7 @@
         <v>0.5429198148402198</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -13416,7 +13426,7 @@
         <v>0.6108111040160467</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -13433,7 +13443,7 @@
         <v>0.7691164118247984</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -13450,7 +13460,7 @@
         <v>0.5794477711794459</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -13467,7 +13477,7 @@
         <v>0.6415906277969021</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -13484,7 +13494,7 @@
         <v>0.3183357218222625</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -13535,7 +13545,7 @@
         <v>0.5412956981851292</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -13552,7 +13562,7 @@
         <v>0.5616174284384379</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -13569,7 +13579,7 @@
         <v>0.2740560818125982</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -13586,7 +13596,7 @@
         <v>0.3136842634264049</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -13620,7 +13630,7 @@
         <v>0.4554962636534466</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -13637,7 +13647,7 @@
         <v>0.5040744816802493</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14171,7 +14181,7 @@
         <v>0.3810196314255812</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -14188,7 +14198,7 @@
         <v>0.4051593791121194</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -14205,7 +14215,7 @@
         <v>0.4140255584533421</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -14222,7 +14232,7 @@
         <v>0.4304499561418535</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -14239,7 +14249,7 @@
         <v>0.419894121529104</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -14273,7 +14283,7 @@
         <v>0.3696960153702508</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -14290,7 +14300,7 @@
         <v>0.4043841563896117</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -14307,7 +14317,7 @@
         <v>0.3719915018371509</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -14324,7 +14334,7 @@
         <v>0.4127024774831826</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -14341,7 +14351,7 @@
         <v>0.3519256930426004</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -14358,7 +14368,7 @@
         <v>0.3785560585111184</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -14375,7 +14385,7 @@
         <v>0.3698369397336319</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -14392,7 +14402,7 @@
         <v>0.3785584102715963</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -14409,7 +14419,7 @@
         <v>0.3936282699153891</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -14443,7 +14453,7 @@
         <v>0.3505674311900053</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -14477,7 +14487,7 @@
         <v>0.3444902930598203</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -14494,7 +14504,7 @@
         <v>0.3981881402897778</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -14562,7 +14572,7 @@
         <v>0.3182009924753303</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -14579,7 +14589,7 @@
         <v>0.3452126798739253</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -14642,7 +14652,7 @@
         <v>0.7489063659833121</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -14727,7 +14737,7 @@
         <v>0.6602905930533834</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -14744,7 +14754,7 @@
         <v>0.5872529528610514</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -14778,7 +14788,7 @@
         <v>0.773947902168106</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -14812,7 +14822,7 @@
         <v>0.3440497238643172</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -14897,7 +14907,7 @@
         <v>0.2849748632081016</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -14914,7 +14924,7 @@
         <v>0.7753211947050901</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -14931,7 +14941,7 @@
         <v>0.6515722224028788</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -14982,7 +14992,7 @@
         <v>0.4357579234386718</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -14999,7 +15009,7 @@
         <v>0.5650348091311436</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -15016,7 +15026,7 @@
         <v>0.2443902915250172</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -15113,7 +15123,7 @@
         <v>0.8325029089466214</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -15130,7 +15140,7 @@
         <v>0.6800946626196233</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -15147,7 +15157,7 @@
         <v>0.8320763395415126</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -15164,7 +15174,7 @@
         <v>0.8097237429949036</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -15181,7 +15191,7 @@
         <v>0.8133584219375568</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -15198,7 +15208,7 @@
         <v>0.787557210475909</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -15232,7 +15242,7 @@
         <v>0.8222786502771459</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -15249,7 +15259,7 @@
         <v>0.8143514910246352</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -15283,7 +15293,7 @@
         <v>0.7613710710798682</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -15300,7 +15310,7 @@
         <v>0.7895868704654155</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -15317,7 +15327,7 @@
         <v>0.828000103849455</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -15334,7 +15344,7 @@
         <v>0.6778329914418643</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -15351,7 +15361,7 @@
         <v>0.7639755805275696</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -15368,7 +15378,7 @@
         <v>0.668042074767638</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -15385,7 +15395,7 @@
         <v>0.7351441557246743</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -15402,7 +15412,7 @@
         <v>0.6818933479215891</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -15419,7 +15429,7 @@
         <v>0.4045044889879617</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -15436,7 +15446,7 @@
         <v>0.3709706631821184</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -15453,7 +15463,7 @@
         <v>0.5674890979289918</v>
       </c>
       <c r="E22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -15470,7 +15480,7 @@
         <v>0.5595806105945276</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -15487,7 +15497,7 @@
         <v>0.4599702665452943</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -15504,7 +15514,7 @@
         <v>0.6429461018082824</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -15521,7 +15531,7 @@
         <v>0.4312313591639106</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -15737,7 +15747,7 @@
         <v>0.8982324750956391</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -16471,6 +16481,4716 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6788251961512922</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5822737629331096</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7173855206136356</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5086498627335942</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5396584765451055</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6412876831104199</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5758936710847423</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6064249608961156</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7036402477735306</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6363512308260059</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.38369800502615</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4899249759166049</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5323353862587747</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.2744643625695817</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.1855881553809411</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5449814863754945</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5111605461197916</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3811672735137144</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.386191989194296</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.252698031081261</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4976434558728901</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2336694299561837</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.09806538627056458</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1225253159586603</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.2266259245426883</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8363064079635001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8424993770718723</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8246286461298322</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7342856065914902</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7989919580363686</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8427324722250379</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7990593809760366</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8001115282105109</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8757513219799886</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8883964314810815</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6413270206771825</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6947691830440323</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8577230274579943</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8363872116607453</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.864370278377704</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4083474426605033</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7158673816346196</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7957452629916851</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8532880954132839</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8530236162180765</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5729740209525944</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6006510515825155</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.4321916490560889</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8392407349970055</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8548547369099686</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8102666725440664</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8245691005133802</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7845066288336497</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7502546934758179</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7939956233270564</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8175599992118145</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7578568590708941</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7828888914145969</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8176690591631496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8297099477297523</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6559820954576343</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7216628328887823</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.748956853785045</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6896251464022258</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.77403029922418</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.378006109420311</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4419440091537404</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5784423749343877</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6282895435899678</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6643719124422989</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4425992187278855</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.485890922275289</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5130540063812209</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.455648060372462</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6165126516673594</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5717758162838306</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5045690088181568</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5809181107624481</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6011786190545726</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5987775384626521</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5525371744409286</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5346640802695753</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5880492425032141</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6254571967035643</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5082889683400723</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4483436258191477</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5530381980661165</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6431810797796434</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5298886795934804</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.4776635580205788</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2974787691582302</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3180927004958604</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4011019534888245</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4025250610501876</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3837211189234698</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2901165775656993</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3351307945017517</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.2452896760003377</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3518907997404446</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3348494996760404</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3323442020268256</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4443709105199237</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6661251343917901</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5342354702869792</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6506653762882857</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2665056945227768</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3128462737729847</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5439108244258545</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5344239438164557</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5856901322761588</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1384407225324486</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.1740208380701671</v>
+      </c>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3393620922064448</v>
+      </c>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6096836223165627</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.673789304514135</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1132381951807843</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.1003231101406868</v>
+      </c>
+      <c r="E18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1310518362590259</v>
+      </c>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4078188313064175</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.4458904304546076</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.106348167501946</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.1047612206123197</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1492500323276665</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3054659719924792</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4801710213200341</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2488022479509897</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2807751217232706</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7942334759344248</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7426655524281355</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7680789678850318</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4081036694203775</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.2401898832269558</v>
+      </c>
+      <c r="E8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4597578990730776</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3399343882972857</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2510353764197578</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4461453384204792</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5524293269781729</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4331495959526224</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.513211291838601</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.3640991232246981</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.2820691933023359</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4267242659042328</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5973220391959472</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5042545094796058</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5502650200500828</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2870892057174255</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3869769840436348</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.327998606537394</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5271477292441555</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5464004033343097</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7229781964598099</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7509054316866705</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8077178880246756</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6660067241184542</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8222910346233199</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6723566352991005</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5551695572188542</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.73848321198002</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7092815344885951</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8435898580313312</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7331010722193125</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8449328144956295</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8204676378553898</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8197892828791826</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8638822893637406</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6611882422114981</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6982820532709549</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.4301837664436729</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8091595274763971</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8352057712632492</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4599134567223648</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5098133199765145</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.367091530508335</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8030911245127007</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7977184213045289</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5422207976391216</v>
+      </c>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5985010573513702</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5111044350061211</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.515978138378097</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5216082878110011</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5276801713016238</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5428621943746288</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.57426658963461</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.608050968228653</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5692399704289406</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5511902967242908</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.594510324714272</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6098686338036882</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5671418726016998</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.562523973749444</v>
+      </c>
+      <c r="E16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4434977172178737</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5604361513872071</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5172877381464978</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5698626629860247</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5727870256074318</v>
+      </c>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3523598408992757</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.4304454506780014</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.284250000223695</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5279389842525271</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5601819747229826</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6457945885278404</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7085914001929087</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6461391484638715</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6994852755604603</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6635080536682267</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6167774096038459</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6327157122699192</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6480032859465428</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6986912504634574</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6517211668336022</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5932163180284855</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6578472085907413</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6015799394234356</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.654257094089428</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6327665587822369</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.4357306043138144</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.4010788663852332</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.3969128143460768</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5311255389693978</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5700810671025456</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.3136423624211565</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2306520708350668</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1880073210873162</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3334285987727307</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.45211098220892</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>long-xm</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>long-ym</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NDVI</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Riesgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6688211109694433</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8391439248543121</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7735622021375643</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6816285016686454</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-75.78945109963882</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6536782948437658</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3106892019175767</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.703293076037333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7717073524244364</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6728309243868561</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-75.7885922824137</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5130761829298518</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.2908402508682311</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6281610859519935</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7777989046893951</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8353922917780889</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-75.78773346518857</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8492294167127565</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C17" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.1005189338538229</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C18" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.3570508901772905</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C19" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5248439496210691</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7501008373787402</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-75.78687464796343</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7995271184779329</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>6.15818348129518</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.2126412163770968</v>
+      </c>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.158839773883416</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3249833765722849</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6.159496066471652</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3681502496451919</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.160152359059888</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6730215897633498</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-75.78601583073831</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6.160808651648123</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7965331888017083</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -16543,7 +21263,7 @@
         <v>0.8035469391408718</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -16577,7 +21297,7 @@
         <v>0.8193586898748416</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -16594,7 +21314,7 @@
         <v>0.7138390911765186</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -16611,7 +21331,7 @@
         <v>0.7315764800435497</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -16628,7 +21348,7 @@
         <v>0.7957309512944323</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -16645,7 +21365,7 @@
         <v>0.746110334093499</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -16696,7 +21416,7 @@
         <v>0.7241999773232399</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -16781,7 +21501,7 @@
         <v>0.419834852996008</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -16798,7 +21518,7 @@
         <v>0.7377665285491437</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -16815,7 +21535,7 @@
         <v>0.5509411564887877</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -16832,7 +21552,7 @@
         <v>0.7360428200292979</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -16849,7 +21569,7 @@
         <v>0.8154260827197781</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -16866,7 +21586,7 @@
         <v>0.4302232295243778</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -16883,7 +21603,7 @@
         <v>0.4740161450151875</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -16900,7 +21620,7 @@
         <v>0.3457728443876642</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -16917,7 +21637,7 @@
         <v>0.6744404834164788</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -16934,7 +21654,7 @@
         <v>0.7421056573154533</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -17133,7 +21853,7 @@
         <v>0.6634023013600951</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -17150,7 +21870,7 @@
         <v>0.7883815926387782</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -17167,7 +21887,7 @@
         <v>0.7235358472061134</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -17252,7 +21972,7 @@
         <v>0.4471161029660434</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -17337,7 +22057,7 @@
         <v>0.463554131229629</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -17354,7 +22074,7 @@
         <v>0.4541778375776059</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -17371,7 +22091,7 @@
         <v>0.2737084024449654</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -17388,7 +22108,7 @@
         <v>0.7127080360247441</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -17468,7 +22188,7 @@
         <v>0.8014792596527481</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17485,7 +22205,7 @@
         <v>0.7517328788759924</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -17502,7 +22222,7 @@
         <v>0.8113844898301565</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -17519,7 +22239,7 @@
         <v>0.6624583321238212</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -17536,7 +22256,7 @@
         <v>0.760619602590291</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -17570,7 +22290,7 @@
         <v>0.7453647391849392</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -17587,7 +22307,7 @@
         <v>0.666714736858696</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -17604,7 +22324,7 @@
         <v>0.5600107374089982</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -17621,7 +22341,7 @@
         <v>0.6399701258197931</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -17672,7 +22392,7 @@
         <v>0.5578834376974421</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -17706,7 +22426,7 @@
         <v>0.7451992937851658</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -17774,7 +22494,7 @@
         <v>0.5744584026887576</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -17791,7 +22511,7 @@
         <v>0.7353958086366224</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -17825,7 +22545,7 @@
         <v>0.4081285144029287</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -17859,7 +22579,7 @@
         <v>0.6849482347432732</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -17876,7 +22596,7 @@
         <v>0.5559367447741411</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -17939,7 +22659,7 @@
         <v>0.8218794987344533</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -17956,7 +22676,7 @@
         <v>0.7368913868445105</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -17973,7 +22693,7 @@
         <v>0.784121503467498</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -17990,7 +22710,7 @@
         <v>0.658425420184928</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -18007,7 +22727,7 @@
         <v>0.7367107429437536</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -18024,7 +22744,7 @@
         <v>0.7305982029769627</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -18041,7 +22761,7 @@
         <v>0.7913458859946834</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -18058,7 +22778,7 @@
         <v>0.6998248976606498</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -18075,7 +22795,7 @@
         <v>0.7657697525683741</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -18092,7 +22812,7 @@
         <v>0.7636668827604863</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -18109,7 +22829,7 @@
         <v>0.6923341304076938</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -18126,7 +22846,7 @@
         <v>0.8218962880908321</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -18143,7 +22863,7 @@
         <v>0.8343984038773046</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -18160,7 +22880,7 @@
         <v>0.8037738023137905</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -18177,7 +22897,7 @@
         <v>0.8048271549994307</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -18194,7 +22914,7 @@
         <v>0.4335070465372094</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -18211,7 +22931,7 @@
         <v>0.7494076989152925</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -18228,7 +22948,7 @@
         <v>0.4945414585386103</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -18245,7 +22965,7 @@
         <v>0.7584677245992784</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -18262,7 +22982,7 @@
         <v>0.8364959381724876</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -18279,7 +22999,7 @@
         <v>0.3866653399238945</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -18296,7 +23016,7 @@
         <v>0.4801119413847469</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -18313,7 +23033,7 @@
         <v>0.2844801272900245</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -18330,7 +23050,7 @@
         <v>0.7344313435459985</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -18347,7 +23067,7 @@
         <v>0.775656689839892</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -18410,7 +23130,7 @@
         <v>0.4037896616353617</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -18427,7 +23147,7 @@
         <v>0.38737947755812</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -18495,7 +23215,7 @@
         <v>0.3614616354603108</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -18512,7 +23232,7 @@
         <v>0.3644166871211705</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -18529,7 +23249,7 @@
         <v>0.3713324475909606</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -18614,7 +23334,7 @@
         <v>0.4118584248963216</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -18631,7 +23351,7 @@
         <v>0.4070535592808422</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -18648,7 +23368,7 @@
         <v>0.5066165087386292</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -18665,7 +23385,7 @@
         <v>0.4291311849716806</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -18699,7 +23419,7 @@
         <v>0.626578018807129</v>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -18733,7 +23453,7 @@
         <v>0.6608379362172406</v>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -18750,7 +23470,7 @@
         <v>0.4898631948215086</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -18767,7 +23487,7 @@
         <v>0.4847893938550072</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -18818,7 +23538,7 @@
         <v>0.6223379399049116</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
